--- a/exe/Xml/Operation.xlsx
+++ b/exe/Xml/Operation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\【簡易版】TrainCrewMoniter - コピー\exe\Xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\【簡易版】TrainCrewMoniter\exe\Xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E7355B-C9A9-4FC9-8F69-48523CD0AB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0342BE75-6F0A-475D-8F0B-6CA58D577161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="3780" windowWidth="24345" windowHeight="15000" xr2:uid="{213446EA-6E29-4F85-8362-3AD7B70FF430}"/>
+    <workbookView xWindow="3135" yWindow="3150" windowWidth="24345" windowHeight="15000" xr2:uid="{213446EA-6E29-4F85-8362-3AD7B70FF430}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Direction</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +65,72 @@
   </si>
   <si>
     <t>館浜</t>
+  </si>
+  <si>
+    <t>西赤山</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>アカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抑速</t>
+    <rPh sb="0" eb="2">
+      <t>ヨクソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥峯口</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミネグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日野森</t>
+    <rPh sb="0" eb="3">
+      <t>ヒノモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢</t>
+    <rPh sb="0" eb="3">
+      <t>タカミザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越</t>
+    <rPh sb="0" eb="2">
+      <t>ミズコシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抑速</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江</t>
+    <rPh sb="0" eb="2">
+      <t>フジエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大道寺</t>
+    <rPh sb="0" eb="3">
+      <t>ダイドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -167,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D07015E-A70E-41CC-AE79-D1F00181EF3C}" name="テーブル1" displayName="テーブル1" ref="A1:E3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:E3" xr:uid="{7D07015E-A70E-41CC-AE79-D1F00181EF3C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D07015E-A70E-41CC-AE79-D1F00181EF3C}" name="テーブル1" displayName="テーブル1" ref="A1:E10" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:E10" xr:uid="{7D07015E-A70E-41CC-AE79-D1F00181EF3C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{201DDCB6-BA49-42CD-938F-B3925B4C3D33}" uniqueName="Direction" name="Direction">
       <xmlColumnPr mapId="1" xpath="/Xml/Value/Direction" xmlDataType="string"/>
@@ -487,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -523,33 +589,152 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>870</v>
+        <v>535</v>
       </c>
       <c r="D2">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>960</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1445</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1580</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1270</v>
+      </c>
+      <c r="D7">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>2070</v>
+      </c>
+      <c r="D8">
+        <v>730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>870</v>
+      </c>
+      <c r="D9">
+        <v>370</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C10">
         <v>977</v>
       </c>
-      <c r="D3">
+      <c r="D10">
         <v>430</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>

--- a/exe/Xml/Operation.xlsx
+++ b/exe/Xml/Operation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\【簡易版】TrainCrewMoniter\exe\Xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0342BE75-6F0A-475D-8F0B-6CA58D577161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED359DB2-CD51-41E6-BC7A-B67582665CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="3150" windowWidth="24345" windowHeight="15000" xr2:uid="{213446EA-6E29-4F85-8362-3AD7B70FF430}"/>
+    <workbookView xWindow="4725" yWindow="4965" windowWidth="24345" windowHeight="15000" xr2:uid="{213446EA-6E29-4F85-8362-3AD7B70FF430}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="D2">
         <v>300</v>
